--- a/现金流量表/300920.xlsx
+++ b/现金流量表/300920.xlsx
@@ -724,14 +724,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -744,56 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>113050568.94</v>
+        <v>70497982.62</v>
       </c>
       <c r="P2" t="n">
-        <v>125.2343709605</v>
+        <v>267.3711558162</v>
       </c>
       <c r="Q2" t="n">
-        <v>331480797.26</v>
+        <v>312450800.79</v>
       </c>
       <c r="R2" t="n">
-        <v>367.2054861783</v>
+        <v>1185.0031538241</v>
       </c>
       <c r="S2" t="n">
-        <v>41052567.46</v>
+        <v>39133838.92</v>
       </c>
       <c r="T2" t="n">
-        <v>45.4769269219</v>
+        <v>148.4192788887</v>
       </c>
       <c r="U2" t="n">
-        <v>-22618179.73</v>
+        <v>-72107221.13</v>
       </c>
       <c r="V2" t="n">
-        <v>-25.0558094251</v>
+        <v>-273.4743653609</v>
       </c>
       <c r="W2" t="n">
-        <v>3081053.09</v>
+        <v>1642791.79</v>
       </c>
       <c r="X2" t="n">
-        <v>3.4131075079</v>
+        <v>6.2304639556</v>
       </c>
       <c r="Y2" t="n">
-        <v>123462914.03</v>
+        <v>73323303.28</v>
       </c>
       <c r="Z2" t="n">
-        <v>136.7688859992</v>
+        <v>278.0864872675</v>
       </c>
       <c r="AA2" t="n">
-        <v>-6664.62</v>
+        <v>28277154.26</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.0073828863</v>
+        <v>107.2441385797</v>
       </c>
       <c r="AC2" t="n">
-        <v>90271199.56999999</v>
+        <v>26367086.01</v>
       </c>
       <c r="AD2" t="n">
-        <v>730.0183075709</v>
+        <v>1518.5581256694</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
